--- a/data/trans_dic/P2B_1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2B_1-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con movilidad a otra vivienda por motivos de confortabilidad</t>
+          <t>Población con movilidad a otra vivienda por motivos de confortabilidad (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>59,3%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,94%</t>
+          <t>1,6%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,0</t>
+          <t>0,49; 4,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,64; 100,0</t>
+          <t>0,59; 6,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,75</t>
+          <t>0,47; 4,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,78</t>
+          <t>0,0; 3,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,96; 48,67</t>
+          <t>0,54; 3,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,66; 59,27</t>
+          <t>0,57; 3,79</t>
         </is>
       </c>
     </row>
@@ -686,7 +687,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>48,57%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +697,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,35%</t>
+          <t>3,56%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,84; 84,78</t>
+          <t>1,09; 24,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,93</t>
+          <t>0,0; 2,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,4; 69,93</t>
+          <t>0,79; 12,27</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>44,38%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>36,23%</t>
+          <t>1,58%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,09; 48,77</t>
+          <t>0,35; 3,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,32</t>
+          <t>0,39; 4,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,7; 46,68</t>
+          <t>0,27; 2,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,29; 79,44</t>
+          <t>0,69; 3,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,63; 37,36</t>
+          <t>0,43; 2,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,82; 62,76</t>
+          <t>0,73; 3,18</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>42,22%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>27,69%</t>
+          <t>1,14%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 39,7</t>
+          <t>0,31; 2,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,11</t>
+          <t>0,0; 1,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,76</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,33; 70,88</t>
+          <t>0,9; 3,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,02; 35,74</t>
+          <t>0,28; 1,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,1; 54,56</t>
+          <t>0,48; 2,25</t>
         </is>
       </c>
     </row>
@@ -926,27 +927,27 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>45,8%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>0,77%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 85,03</t>
+          <t>0,0; 3,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,35; 52,04</t>
+          <t>0,36; 3,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 43,27</t>
+          <t>0,0; 2,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,17; 42,87</t>
+          <t>0,18; 1,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,23; 47,97</t>
+          <t>0,22; 2,16</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>35,72%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>59,31%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>28,2%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>30,55%</t>
+          <t>1,57%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,87; 64,97</t>
+          <t>0,75; 4,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,59; 100,0</t>
+          <t>0,46; 4,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,19; 47,73</t>
+          <t>0,29; 2,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,11; 49,66</t>
+          <t>0,38; 4,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,96; 48,76</t>
+          <t>0,72; 2,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,02; 59,7</t>
+          <t>0,5; 3,42</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>37,83%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,47%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>31,81%</t>
+          <t>1,69%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,24; 30,24</t>
+          <t>0,59; 1,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,11; 58,64</t>
+          <t>1,05; 5,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,66; 26,66</t>
+          <t>0,5; 1,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15,19; 42,0</t>
+          <t>0,79; 2,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,39; 25,14</t>
+          <t>0,62; 1,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,31; 44,36</t>
+          <t>1,11; 3,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con movilidad a otra vivienda por motivos de confortabilidad (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8291</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10575</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7157</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4916</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15448</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15491</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2519; 23449</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2987; 30404</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2185; 19454</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17298</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5235; 30043</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5523; 36816</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>36098</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2738</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>38835</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6242; 138498</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14255</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8683; 133993</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8475</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9574</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5923</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12547</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14399</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22121</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2346; 24097</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2659; 28134</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1898; 15854</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4917; 27911</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5836; 30758</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10267; 44498</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6013</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2382</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3758</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12803</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9771</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>15185</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1960; 18135</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 12385</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13267</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6187; 26821</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3815; 21773</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6343; 29967</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5558</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6228</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2168</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6228</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7726</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 16747</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1821; 18965</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10481</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1874; 19076</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2166; 21654</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>12502</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>8502</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7387</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>11283</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>19889</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>19785</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4114; 25644</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2506; 23643</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2114; 18951</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2721; 34084</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>9150; 37816</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>6285; 43130</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>35281</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>72689</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>30453</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>46455</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>65734</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>119144</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>20513; 57654</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>36181; 188253</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>17952; 49635</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>28433; 74124</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>43465; 94221</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>78173; 227495</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>